--- a/3_output/tablas/1_test_hipotesis.xlsx
+++ b/3_output/tablas/1_test_hipotesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/3_output/tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{321BA113-D5C5-4DAA-BA7B-EF9557309899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61411E98-839C-4A37-8C1B-50F412B7C390}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{321BA113-D5C5-4DAA-BA7B-EF9557309899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7930EC5F-DD4C-487E-B009-CDB9B11253CB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="887" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formulación" sheetId="11" r:id="rId1"/>
@@ -66,29 +66,6 @@
     <t>Mecanismo subjetivo</t>
   </si>
   <si>
-    <r>
-      <t>H1: Los residentes que habitan barrios con mayor nivel de segregación experimentan mayores niveles de cohesión barrial en todas sus dimensiones (1c); excepto en GSE bajos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">donde se presenta una relación inversa. </t>
-    </r>
-  </si>
-  <si>
     <t>H3.2: Los residentes que reportan mayor satisfacción residencial experimentan mayor cohesión barrial. (3.2b)</t>
   </si>
   <si>
@@ -162,13 +139,16 @@
   </si>
   <si>
     <t>Rechazada ↓***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1: Los residentes que habitan barrios con mayor nivel de segregación experimentan mayores niveles de cohesión barrial en todas sus dimensiones (1c); excepto en GSE bajos donde se presenta una relación inversa. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +158,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -249,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -272,10 +246,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -284,6 +258,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -300,6 +277,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,17 +568,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8EB2B2-57D8-406B-8019-952C42E865B7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.54296875" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="42.453125" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -609,127 +589,127 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="70" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12" t="s">
+    <row r="9" spans="1:3" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="1:3" ht="85" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="1:3" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6" t="s">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -760,204 +740,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F74542-A909-4FCA-94EB-1CB54FFD1CD8}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6328125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6328125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
